--- a/storage/exports/Laporan Keuangan Unit LPSB 2018.xlsx
+++ b/storage/exports/Laporan Keuangan Unit LPSB 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Laporan Keuangan LPSB</t>
   </si>
@@ -38,13 +38,19 @@
     <t xml:space="preserve">Saldo Awal </t>
   </si>
   <si>
-    <t>17-Jun-18</t>
-  </si>
-  <si>
-    <t>Ninik Lestari Ningsih; Saldo Awal LPSB</t>
+    <t>3-Jul-18</t>
+  </si>
+  <si>
+    <t>Amat; Saldo Awal Cash</t>
   </si>
   <si>
     <t>LPSB</t>
+  </si>
+  <si>
+    <t>6-Jul-18</t>
+  </si>
+  <si>
+    <t>pegawai lpsb; Drop untuk LPSB</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,24 +516,43 @@
         <v>8</v>
       </c>
       <c r="C5" s="8">
-        <v>500000000</v>
+        <v>510000000</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
         <f>E4+C5-D5</f>
-        <v>500000000</v>
+        <v>510000000</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:6" customHeight="1" ht="15.75">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="E6" s="8">
+        <f>E5+C6-D6</f>
+        <v>500000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
